--- a/Yu Feng CRC-fungi-Re1 (JY)/table 1-2.xlsx
+++ b/Yu Feng CRC-fungi-Re1 (JY)/table 1-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu Jun\Desktop\Yu Feng CRC-fungi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\multi-CRC-fungi\Yu Feng CRC-fungi-Re1 (JY)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF19650-ABD8-43A1-A898-38F38760A663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF067433-91C0-4A3F-93C0-0BC6A4D5D36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>2014_ZellerG</t>
   </si>
@@ -91,21 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No. of adenoma 
-(raw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No. of CRC 
-(raw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Num
-(raw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Raw/Clean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No. of healthy control (raw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 2. Single-feature-model AUC performance with LOSO</t>
   </si>
   <si>
@@ -132,6 +113,34 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Total Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of healthy control </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of adenoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of CRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fungi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bacteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,13 +151,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,20 +174,20 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,15 +284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -317,9 +317,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,24 +612,24 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
+      <c r="A1" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -628,449 +640,449 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="15">
+        <v>90</v>
+      </c>
+      <c r="D3" s="15">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15">
+        <v>61</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15">
+        <v>198</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>68</v>
+      </c>
+      <c r="D4" s="12">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>148</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15">
+        <v>46</v>
+      </c>
+      <c r="D5" s="15">
+        <v>47</v>
+      </c>
+      <c r="E5" s="15">
+        <v>63</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>156</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>115</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15">
+        <v>52</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>52</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15">
+        <v>61</v>
+      </c>
+      <c r="D11" s="15">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15">
+        <v>52</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>140</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="C13" s="15">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>60</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19"/>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="18">
-        <v>90</v>
-      </c>
-      <c r="D3" s="18">
-        <v>42</v>
-      </c>
-      <c r="E3" s="18">
-        <v>61</v>
-      </c>
-      <c r="F3" s="18">
-        <v>5</v>
-      </c>
-      <c r="G3" s="18">
-        <v>198</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15">
-        <v>68</v>
-      </c>
-      <c r="D4" s="15">
-        <v>31</v>
-      </c>
-      <c r="E4" s="18">
-        <v>49</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>148</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18">
-        <v>46</v>
-      </c>
-      <c r="D5" s="18">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18">
-        <v>63</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>156</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15">
-        <v>36</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>115</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="18">
-        <v>52</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>52</v>
-      </c>
-      <c r="F7" s="18">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="C14" s="12">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>51</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15">
+        <v>186</v>
+      </c>
+      <c r="D15" s="15">
+        <v>140</v>
+      </c>
+      <c r="E15" s="15">
+        <v>252</v>
+      </c>
+      <c r="F15" s="15">
+        <v>67</v>
+      </c>
+      <c r="G15" s="15">
+        <v>645</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12">
+        <v>141</v>
+      </c>
+      <c r="D16" s="12">
+        <v>108</v>
+      </c>
+      <c r="E16" s="15">
+        <v>174</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>423</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="15">
+        <v>74</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>91</v>
+      </c>
+      <c r="F17" s="15">
+        <v>51</v>
+      </c>
+      <c r="G17" s="15">
+        <v>216</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19"/>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>53</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15">
         <v>110</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15">
-        <v>34</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>33</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18">
-        <v>27</v>
-      </c>
-      <c r="D9" s="18">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18">
-        <v>28</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>82</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18">
-        <v>61</v>
-      </c>
-      <c r="D11" s="18">
-        <v>27</v>
-      </c>
-      <c r="E11" s="18">
-        <v>52</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>140</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15">
-        <v>27</v>
-      </c>
-      <c r="D12" s="15">
-        <v>8</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D19" s="15">
+        <v>197</v>
+      </c>
+      <c r="E19" s="15">
+        <v>112</v>
+      </c>
+      <c r="F19" s="15">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>423</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <v>96</v>
+      </c>
+      <c r="D20" s="12">
+        <v>167</v>
+      </c>
+      <c r="E20" s="15">
+        <v>100</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>363</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>60</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>82</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
-        <v>11</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>51</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="18">
-        <v>186</v>
-      </c>
-      <c r="D15" s="18">
-        <v>140</v>
-      </c>
-      <c r="E15" s="18">
-        <v>252</v>
-      </c>
-      <c r="F15" s="18">
-        <v>67</v>
-      </c>
-      <c r="G15" s="18">
-        <v>645</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15">
-        <v>141</v>
-      </c>
-      <c r="D16" s="15">
-        <v>108</v>
-      </c>
-      <c r="E16" s="18">
-        <v>174</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>423</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="18">
-        <v>74</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>91</v>
-      </c>
-      <c r="F17" s="18">
-        <v>51</v>
-      </c>
-      <c r="G17" s="18">
-        <v>216</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="15">
-        <v>43</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>53</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>96</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="18">
-        <v>110</v>
-      </c>
-      <c r="D19" s="18">
-        <v>197</v>
-      </c>
-      <c r="E19" s="18">
-        <v>112</v>
-      </c>
-      <c r="F19" s="18">
-        <v>4</v>
-      </c>
-      <c r="G19" s="18">
-        <v>423</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10"/>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="15">
-        <v>96</v>
-      </c>
-      <c r="D20" s="15">
-        <v>167</v>
-      </c>
-      <c r="E20" s="18">
-        <v>100</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>363</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6">
         <v>668</v>
@@ -1090,9 +1102,9 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5">
         <v>454</v>
@@ -1126,291 +1138,319 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CDB114-59ED-4036-902E-3B691B34FE5D}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12">
         <v>64.11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="D3" s="12">
         <v>63.95</v>
       </c>
-      <c r="D3" s="15">
+      <c r="E3" s="12">
         <v>67.56</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="12">
         <v>53.8</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="12">
         <v>66.489999999999995</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="12">
         <v>60.18</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="12">
         <v>59.81</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="12">
         <v>60.71</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>62.08</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
         <v>69.27</v>
       </c>
-      <c r="C4" s="15">
+      <c r="D4" s="12">
         <v>60.29</v>
       </c>
-      <c r="D4" s="15">
+      <c r="E4" s="12">
         <v>58.11</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="12">
         <v>45.37</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="12">
         <v>74.510000000000005</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="12">
         <v>55.94</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="12">
         <v>55.79</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="12">
         <v>61.23</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>60.06</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12">
         <v>65.08</v>
       </c>
-      <c r="C5" s="15">
+      <c r="D5" s="12">
         <v>74.44</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="12">
         <v>56.15</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="12">
         <v>72.22</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="12">
         <v>75.22</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="12">
         <v>66.41</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="12">
         <v>69.040000000000006</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="12">
         <v>63.77</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>67.790000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
         <v>71.89</v>
       </c>
-      <c r="C6" s="15">
+      <c r="D6" s="12">
         <v>67.19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="12">
         <v>64.13</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="12">
         <v>52.5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="12">
         <v>63.28</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="12">
         <v>64.959999999999994</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="12">
         <v>67.239999999999995</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="12">
         <v>68.97</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>65.02</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12">
         <v>62.39</v>
       </c>
-      <c r="C7" s="15">
+      <c r="D7" s="12">
         <v>64.08</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E7" s="12">
         <v>55.57</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="12">
         <v>75.930000000000007</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="12">
         <v>62.75</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="12">
         <v>64.25</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="12">
         <v>65.42</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="12">
         <v>61.35</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>63.97</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12">
         <v>65.13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="D8" s="12">
         <v>61.83</v>
       </c>
-      <c r="D8" s="15">
+      <c r="E8" s="12">
         <v>57.13</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="12">
         <v>70.83</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="12">
         <v>72.099999999999994</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="12">
         <v>57.15</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="12">
         <v>59.52</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="12">
         <v>55.24</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>62.37</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="22"/>
+      <c r="C9" s="8">
         <v>66.31</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="8">
         <v>65.3</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="8">
         <v>59.77</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="8">
         <v>61.77</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="8">
         <v>69.06</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="8">
         <v>61.48</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="8">
         <v>62.8</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="8">
         <v>61.88</v>
       </c>
-      <c r="J9" s="16">
+      <c r="K9" s="13">
         <v>63.55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
